--- a/data/georgia_census/guria/ozurgeti/average_wages.xlsx
+++ b/data/georgia_census/guria/ozurgeti/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BE0F155-8188-4131-83FE-4C44D765719D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D34D7272-9FAE-4A6D-9DEE-1B2109068893}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1B26DD33-A55C-41CB-920F-295EB6F302E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B2825F1-1CFB-47B1-859A-92B1776B3883}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F41568-EED6-42B1-AAB2-8E5CBD515570}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D5C9EC6-3BAA-4342-B387-88953080CB57}"/>
 </file>